--- a/biology/Écologie/Détérioration/Détérioration.xlsx
+++ b/biology/Écologie/Détérioration/Détérioration.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9t%C3%A9rioration</t>
+          <t>Détérioration</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9t%C3%A9rioration</t>
+          <t>Détérioration</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Environnement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le domaine environnemental, le verbe « Détériorer » (verbe transitif signifiant Rendre pire, abîmer, gâter) est utilisé avec le sens de détériation physique ou fonctionnelle de population de taxons ou d'habitats. La détérioration d'un environnement est une des formes de perturbation écologique.
 En Europe, la législation européenne prévoit que les états agissent pour limiter la détérioration de l'environnement dans les zones Natura 2000 et ZPS.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%C3%A9t%C3%A9rioration</t>
+          <t>Détérioration</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Dans le domaine de l'immobilier</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La détérioration ou dépréciation physique est un des trois éléments de dépréciation des immeubles, les autres étant la désuétude fonctionnelle (ou obsolescence) et la désuétude économique.
 La détérioration est la perte de valeur d’un immeuble causée par l’âge et l'usure matérielle.  Elle peut être corrigible (une toiture à remplacer) ou incorrigible (le vieillissement normal).
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D%C3%A9t%C3%A9rioration</t>
+          <t>Détérioration</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Science des matériaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Voir Vieillissement, Endommagement et Dégradation d'un polymère.
 </t>
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>D%C3%A9t%C3%A9rioration</t>
+          <t>Détérioration</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,7 +628,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Glossaire de l'immobilier
  Portail de l’écologie   Portail de l’environnement                    </t>
